--- a/target/classes/org/t360/testdata/TestData.xlsx
+++ b/target/classes/org/t360/testdata/TestData.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{ED686B46-064D-456F-B330-F291D3487D67}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{E555469F-95BC-43AA-B2CD-77715E18F241}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="7020" activeTab="2" xr2:uid="{B10340C3-09D6-459A-A220-376DB7E89504}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15216" windowHeight="4668" activeTab="2" xr2:uid="{B10340C3-09D6-459A-A220-376DB7E89504}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Login Page Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Matter Cretation Workflow Page " sheetId="3" r:id="rId3"/>
+    <sheet name="LoginPageData" sheetId="2" r:id="rId2"/>
+    <sheet name="MatterCretationWorkflowPage " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
-  <oleSize ref="A1:P21"/>
+  <oleSize ref="A1:H14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>User Name</t>
   </si>
@@ -73,10 +73,19 @@
     <t>Work Area</t>
   </si>
   <si>
-    <t>Temp Matter5</t>
-  </si>
-  <si>
     <t>Temp Network</t>
+  </si>
+  <si>
+    <t>Test Matter 1</t>
+  </si>
+  <si>
+    <t>Test Matter 2</t>
+  </si>
+  <si>
+    <t>Test Matter 3</t>
+  </si>
+  <si>
+    <t>Test Matter 4</t>
   </si>
 </sst>
 </file>
@@ -145,12 +154,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,20 +483,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D8DAF1-4548-4D1D-A585-E5C03FBD3338}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -494,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -505,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -516,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -525,6 +538,17 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -538,12 +562,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -554,7 +578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -565,7 +589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -576,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -587,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -606,34 +630,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1D4389-95BF-484D-9934-73B5D5D98B86}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
